--- a/project/uploads/93/split_output/5筋厚、减轻孔.xlsx
+++ b/project/uploads/93/split_output/5筋厚、减轻孔.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codespace\web-program\project\uploads\93\split_output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codespace\temp\webprogram\project\uploads\93\split_output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{02CD9086-8B79-4544-B778-3C899B8A9FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2615C587-6E71-476A-9CB8-0C803DFC03F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{7699232F-A122-4C04-9A7D-09BED9770B50}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="8170" xr2:uid="{09B2B7D0-7A85-40E9-9FDA-D558C39774D4}"/>
   </bookViews>
   <sheets>
     <sheet name="5筋厚、减轻孔" sheetId="1" r:id="rId1"/>
@@ -7666,7 +7666,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{991C0B18-9195-4AC5-989E-7BA5EF006184}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{428B91B0-3DC4-40F2-ABD9-7E06C9056830}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -7676,13 +7676,13 @@
       <selection activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.59765625" customWidth="1"/>
-    <col min="2" max="2" width="84.59765625" style="29" customWidth="1"/>
+    <col min="1" max="1" width="16.58203125" customWidth="1"/>
+    <col min="2" max="2" width="84.58203125" style="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7693,7 +7693,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -7702,7 +7702,7 @@
       </c>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="8.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="5"/>
       <c r="D3" s="3"/>
@@ -7715,433 +7715,433 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" s="10"/>
     </row>
-    <row r="6" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="11"/>
     </row>
-    <row r="7" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="11"/>
     </row>
-    <row r="8" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="B8"/>
     </row>
-    <row r="9" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="11"/>
     </row>
-    <row r="10" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="11"/>
     </row>
-    <row r="11" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="11"/>
     </row>
-    <row r="12" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="11"/>
     </row>
-    <row r="13" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="11"/>
     </row>
-    <row r="14" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="11"/>
     </row>
-    <row r="15" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="11"/>
     </row>
-    <row r="16" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="11"/>
     </row>
-    <row r="17" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
       <c r="B17" s="11"/>
     </row>
-    <row r="18" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
       <c r="B18" s="11"/>
     </row>
-    <row r="19" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="11"/>
     </row>
-    <row r="20" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
       <c r="B20" s="11"/>
     </row>
-    <row r="21" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
       <c r="B21" s="11"/>
     </row>
-    <row r="22" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
       <c r="B22" s="11"/>
     </row>
-    <row r="23" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="11"/>
     </row>
-    <row r="24" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
       <c r="B24" s="11"/>
     </row>
-    <row r="25" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
       <c r="B25" s="11"/>
     </row>
-    <row r="26" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
       <c r="B26" s="11"/>
     </row>
-    <row r="27" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
       <c r="B27" s="11"/>
     </row>
-    <row r="28" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
       <c r="B28" s="11"/>
     </row>
-    <row r="29" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
       <c r="B29" s="11"/>
     </row>
-    <row r="30" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
       <c r="B30" s="11"/>
     </row>
-    <row r="31" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
       <c r="B31" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
       <c r="B32" s="11"/>
     </row>
-    <row r="33" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
       <c r="B33" s="11"/>
     </row>
-    <row r="34" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
       <c r="B34" s="11"/>
     </row>
-    <row r="35" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9"/>
       <c r="B35" s="11"/>
     </row>
-    <row r="36" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9"/>
       <c r="B36" s="11"/>
     </row>
-    <row r="37" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9"/>
       <c r="B37" s="11"/>
     </row>
-    <row r="38" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="9"/>
       <c r="B38" s="11"/>
     </row>
-    <row r="39" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9"/>
       <c r="B39" s="11"/>
     </row>
-    <row r="40" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9"/>
       <c r="B40" s="11"/>
     </row>
-    <row r="41" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9"/>
       <c r="B41" s="11"/>
     </row>
-    <row r="42" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9"/>
       <c r="B42" s="11"/>
     </row>
-    <row r="43" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9"/>
       <c r="B43" s="11"/>
     </row>
-    <row r="44" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="9"/>
       <c r="B44" s="11"/>
     </row>
-    <row r="45" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="9"/>
       <c r="B45" s="11"/>
     </row>
-    <row r="46" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9"/>
       <c r="B46" s="11"/>
     </row>
-    <row r="47" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="9"/>
       <c r="B47" s="11"/>
     </row>
-    <row r="48" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="9"/>
       <c r="B48" s="11"/>
     </row>
-    <row r="49" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="9"/>
       <c r="B49" s="11"/>
     </row>
-    <row r="50" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="9"/>
       <c r="B50" s="11"/>
     </row>
-    <row r="51" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="9"/>
       <c r="B51" s="11"/>
     </row>
-    <row r="52" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="9"/>
       <c r="B52" s="11"/>
     </row>
-    <row r="53" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="9"/>
       <c r="B53" s="11"/>
     </row>
-    <row r="54" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="9"/>
       <c r="B54" s="11"/>
     </row>
-    <row r="55" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="9"/>
       <c r="B55" s="11"/>
     </row>
-    <row r="56" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="9"/>
       <c r="B56" s="11"/>
     </row>
-    <row r="57" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="9"/>
       <c r="B57" s="11"/>
     </row>
-    <row r="58" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="9"/>
       <c r="B58" s="11"/>
     </row>
-    <row r="59" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="9"/>
       <c r="B59" s="11"/>
     </row>
-    <row r="60" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="9"/>
       <c r="B60" s="11"/>
     </row>
-    <row r="61" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="9"/>
       <c r="B61" s="11"/>
     </row>
-    <row r="62" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="9"/>
       <c r="B62" s="11"/>
     </row>
-    <row r="63" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="9"/>
       <c r="B63" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="9"/>
       <c r="B64" s="11"/>
     </row>
-    <row r="65" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="9"/>
       <c r="B65" s="11"/>
     </row>
-    <row r="66" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="9"/>
       <c r="B66" s="11"/>
     </row>
-    <row r="67" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="9"/>
       <c r="B67" s="11"/>
     </row>
-    <row r="68" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="9"/>
       <c r="B68" s="11"/>
     </row>
-    <row r="69" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="9"/>
       <c r="B69" s="11"/>
     </row>
-    <row r="70" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="9"/>
       <c r="B70" s="11"/>
     </row>
-    <row r="71" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="9"/>
       <c r="B71" s="11"/>
     </row>
-    <row r="72" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="9"/>
       <c r="B72" s="11"/>
     </row>
-    <row r="73" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="9"/>
       <c r="B73" s="11"/>
     </row>
-    <row r="74" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="9"/>
       <c r="B74" s="11"/>
     </row>
-    <row r="75" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="9"/>
       <c r="B75" s="11"/>
     </row>
-    <row r="76" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="9"/>
       <c r="B76" s="11"/>
     </row>
-    <row r="77" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="9"/>
       <c r="B77" s="11"/>
     </row>
-    <row r="78" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="9"/>
       <c r="B78" s="11"/>
     </row>
-    <row r="79" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="9"/>
       <c r="B79" s="11"/>
     </row>
-    <row r="80" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="9"/>
       <c r="B80" s="11"/>
     </row>
-    <row r="81" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="9"/>
       <c r="B81" s="11"/>
     </row>
-    <row r="82" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="9"/>
       <c r="B82" s="11"/>
     </row>
-    <row r="83" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="9"/>
       <c r="B83" s="11"/>
     </row>
-    <row r="84" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="9"/>
       <c r="B84" s="11"/>
     </row>
-    <row r="85" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="9"/>
       <c r="B85" s="11"/>
     </row>
-    <row r="86" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="9"/>
       <c r="B86" s="11"/>
     </row>
-    <row r="87" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="9"/>
       <c r="B87" s="11"/>
     </row>
-    <row r="88" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="9"/>
       <c r="B88" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="9"/>
       <c r="B89" s="11"/>
     </row>
-    <row r="90" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="9"/>
       <c r="B90" s="11"/>
     </row>
-    <row r="91" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="13"/>
       <c r="B91" s="11"/>
     </row>
-    <row r="92" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="13"/>
       <c r="B92" s="11"/>
     </row>
-    <row r="93" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="13"/>
       <c r="B93" s="11"/>
     </row>
-    <row r="94" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="13"/>
       <c r="B94" s="11"/>
     </row>
-    <row r="95" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="13"/>
       <c r="B95" s="11"/>
     </row>
-    <row r="96" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="13"/>
       <c r="B96" s="11"/>
     </row>
-    <row r="97" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="13"/>
       <c r="B97" s="11"/>
     </row>
-    <row r="98" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="13"/>
       <c r="B98" s="11"/>
     </row>
-    <row r="99" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="13"/>
       <c r="B99" s="11"/>
     </row>
-    <row r="100" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="13"/>
       <c r="B100" s="11"/>
     </row>
-    <row r="101" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="13"/>
       <c r="B101" s="11"/>
     </row>
-    <row r="102" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="13"/>
       <c r="B102" s="11"/>
     </row>
-    <row r="103" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="13"/>
       <c r="B103" s="11"/>
     </row>
-    <row r="104" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="13"/>
       <c r="B104" s="11"/>
     </row>
-    <row r="105" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="13"/>
       <c r="B105" s="11"/>
     </row>
-    <row r="106" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="13"/>
       <c r="B106" s="11"/>
     </row>
-    <row r="107" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="13"/>
       <c r="B107" s="11"/>
     </row>
-    <row r="108" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="13"/>
       <c r="B108" s="11"/>
     </row>
-    <row r="109" spans="1:4" s="16" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" s="16" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="14"/>
       <c r="B109" s="15"/>
     </row>
-    <row r="110" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="17" t="s">
         <v>10</v>
       </c>
@@ -8150,188 +8150,188 @@
       </c>
       <c r="D110" s="18"/>
     </row>
-    <row r="111" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="19"/>
       <c r="B111" s="11"/>
       <c r="D111" s="18"/>
     </row>
-    <row r="112" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="19"/>
       <c r="B112" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="19"/>
       <c r="B113" s="11"/>
     </row>
-    <row r="114" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="19"/>
       <c r="B114" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="19"/>
       <c r="B115" s="11"/>
     </row>
-    <row r="116" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="19"/>
       <c r="B116" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="19"/>
       <c r="B117" s="11"/>
     </row>
-    <row r="118" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="19"/>
       <c r="B118" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="19"/>
       <c r="B119" s="20"/>
     </row>
-    <row r="120" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="19"/>
       <c r="B120" s="21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="19"/>
       <c r="B121" s="22"/>
     </row>
-    <row r="122" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="23"/>
       <c r="B122" s="21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="15.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="23"/>
       <c r="B123" s="22" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="23"/>
       <c r="B124" s="24"/>
     </row>
-    <row r="125" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="23"/>
       <c r="B125" s="22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="23"/>
       <c r="B126" s="24"/>
     </row>
-    <row r="127" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="23"/>
       <c r="B127" s="22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="23"/>
       <c r="B128" s="24"/>
     </row>
-    <row r="129" spans="1:6" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="23"/>
       <c r="B129" s="25" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="23"/>
       <c r="B130" s="2"/>
     </row>
-    <row r="131" spans="1:6" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="23"/>
       <c r="B131" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="23"/>
       <c r="B132" s="2"/>
     </row>
-    <row r="133" spans="1:6" ht="43.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" ht="43" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="23"/>
       <c r="B133" s="25" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="23"/>
       <c r="B134" s="2"/>
     </row>
-    <row r="135" spans="1:6" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="26"/>
       <c r="B135" s="2"/>
       <c r="E135" s="27"/>
       <c r="F135" s="28"/>
     </row>
-    <row r="136" spans="1:6" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" spans="1:6" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" spans="1:6" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" spans="1:6" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" spans="1:6" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" spans="1:6" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" spans="1:6" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" spans="1:6" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" spans="1:6" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A4:A90"/>
@@ -8339,7 +8339,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D1" location="目录!A1" display="返回" xr:uid="{6A58A1DA-CE92-4EC1-AF6F-0B97249A4572}"/>
+    <hyperlink ref="D1" location="目录!A1" display="返回" xr:uid="{4F86ECFF-FCF6-4E8B-88DE-1FAE4A6DB59C}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="64" orientation="portrait" r:id="rId1"/>
